--- a/IssueTime.xlsx
+++ b/IssueTime.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amal Saleh\PycharmProjects\projectA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09B9940-CD62-45CA-9521-0665BDE847D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B09FB-72B1-4A1E-9AD0-D51AFBB6606C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IssueTime" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="IssueTime" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>time</t>
   </si>
@@ -54,32 +55,92 @@
     <t>discription</t>
   </si>
   <si>
-    <t> fridge: The ice maker isn't working</t>
-  </si>
-  <si>
-    <t>freezer: Lots of freezer ice buildup</t>
-  </si>
-  <si>
-    <t>phone : Battery Doesn’t Seem to Hold Up</t>
-  </si>
-  <si>
-    <t>laptop : Screen Is Cracked</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TV : shows a  black screen</t>
-  </si>
-  <si>
     <t>**</t>
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laptop </t>
+  </si>
+  <si>
+    <t>Screen Is Cracked</t>
+  </si>
+  <si>
+    <t>no internet</t>
+  </si>
+  <si>
+    <t>black screen</t>
+  </si>
+  <si>
+    <t>laptop renning slowly</t>
+  </si>
+  <si>
+    <t>hard drive failure</t>
+  </si>
+  <si>
+    <t>Battery Doesn’t Seem to Hold Up</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Charging Port Stopped Working</t>
+  </si>
+  <si>
+    <t>Screen Keeps Freezing</t>
+  </si>
+  <si>
+    <t>Phone is Responding Slowly</t>
+  </si>
+  <si>
+    <t> Lots of freezer ice buildup</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   shows a  black screen</t>
+  </si>
+  <si>
+    <t> The ice maker isn't working</t>
+  </si>
+  <si>
+    <t>b675</t>
+  </si>
+  <si>
+    <t>b945</t>
+  </si>
+  <si>
+    <t>b123</t>
+  </si>
+  <si>
+    <t>b765</t>
+  </si>
+  <si>
+    <t>b892</t>
+  </si>
+  <si>
+    <t>b349</t>
+  </si>
+  <si>
+    <t>b198</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +160,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,6 +203,18 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -156,16 +237,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>335281</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>119975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603576</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99061</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104735</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595956</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -180,8 +261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="1408730">
-          <a:off x="5692141" y="302855"/>
-          <a:ext cx="1821180" cy="1447800"/>
+          <a:off x="8840796" y="577210"/>
+          <a:ext cx="1821180" cy="904255"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal2">
           <a:avLst/>
@@ -224,10 +305,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>594360</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="915409" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -243,7 +324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6126480" y="739140"/>
+          <a:off x="9166860" y="1143000"/>
           <a:ext cx="915409" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -576,122 +657,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC212E80-4DBA-45B9-899F-ABD3632E7007}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
     <col min="4" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/IssueTime.xlsx
+++ b/IssueTime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jscy\projectA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B09FB-72B1-4A1E-9AD0-D51AFBB6606C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>time</t>
   </si>
@@ -134,12 +133,15 @@
   </si>
   <si>
     <t>b198</t>
+  </si>
+  <si>
+    <t>laptop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,14 +209,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,35 +656,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC212E80-4DBA-45B9-899F-ABD3632E7007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="58.44140625" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,11 +701,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -719,11 +718,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
@@ -734,11 +735,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,11 +752,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -764,11 +769,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
@@ -779,11 +786,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -796,12 +803,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3">
@@ -811,12 +820,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3">
@@ -826,12 +837,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="3">
@@ -841,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -858,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -875,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -892,24 +905,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/IssueTime.xlsx
+++ b/IssueTime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jscy\projectA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jscy\Desktop\projectA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>time</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laptop </t>
   </si>
   <si>
     <t>Screen Is Cracked</t>
@@ -674,7 +671,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>4.1666666666666664E-2</v>
@@ -723,10 +720,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>2.0833333333333332E-2</v>
@@ -740,10 +737,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3">
         <v>3.4722222222222224E-2</v>
@@ -757,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>1.3888888888888888E-2</v>
@@ -774,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>2.0833333333333332E-2</v>
@@ -788,13 +785,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>2.0833333333333332E-2</v>
@@ -805,13 +802,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>3.4722222222222224E-2</v>
@@ -822,13 +819,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3">
         <v>6.25E-2</v>
@@ -839,13 +836,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3">
         <v>2.7777777777777776E-2</v>
@@ -856,13 +853,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3">
         <v>3.125E-2</v>
@@ -873,13 +870,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3">
         <v>5.5555555555555552E-2</v>
@@ -890,13 +887,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="3">
         <v>4.1666666666666664E-2</v>
